--- a/rev2/aqplus_rev2_BOM.xlsx
+++ b/rev2/aqplus_rev2_BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sph\Box\Retro\Aquarius\Aquarius Plus\aquarius-plus\pcb\rev2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sph\Box\Retro\Aquarius\AquariusPlus\aquarius-plus\System\pcb\rev2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A14AFA-379A-4814-9A2B-955724849332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1D1802-DEA0-4117-A1E9-DD4B12D7E614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -570,9 +570,6 @@
     <t>C138387</t>
   </si>
   <si>
-    <t>C2884998</t>
-  </si>
-  <si>
     <t>PJ-320B-SMT</t>
   </si>
   <si>
@@ -580,6 +577,9 @@
   </si>
   <si>
     <t>C7431259</t>
+  </si>
+  <si>
+    <t>C2939180</t>
   </si>
 </sst>
 </file>
@@ -1046,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -1114,7 +1114,7 @@
         <v>124</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E4" s="7"/>
     </row>
@@ -1368,10 +1368,10 @@
         <v>75</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15">
@@ -1536,10 +1536,10 @@
         <v>86</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15">
@@ -1718,10 +1718,10 @@
         <v>99</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="57">
@@ -1749,7 +1749,7 @@
         <v>122</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15">
@@ -1774,10 +1774,10 @@
         <v>103</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/rev2/aqplus_rev2_BOM.xlsx
+++ b/rev2/aqplus_rev2_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sph\Box\Retro\Aquarius\AquariusPlus\aquarius-plus\System\pcb\rev2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1D1802-DEA0-4117-A1E9-DD4B12D7E614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C6DEB5-51A8-4D06-A050-992823198030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="161">
   <si>
     <t>Comment</t>
   </si>
@@ -96,9 +96,6 @@
     <t>IS61C5128AS-25QLI</t>
   </si>
   <si>
-    <t>Bootloader</t>
-  </si>
-  <si>
     <t>4300</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
     <t>100nF</t>
   </si>
   <si>
-    <t>Hand controller 2</t>
-  </si>
-  <si>
     <t>LD1117S12</t>
   </si>
   <si>
@@ -120,9 +114,6 @@
     <t>2150</t>
   </si>
   <si>
-    <t>USB</t>
-  </si>
-  <si>
     <t>10uF</t>
   </si>
   <si>
@@ -135,9 +126,6 @@
     <t>330</t>
   </si>
   <si>
-    <t>Cassette in</t>
-  </si>
-  <si>
     <t>220</t>
   </si>
   <si>
@@ -156,9 +144,6 @@
     <t>150</t>
   </si>
   <si>
-    <t>DBG</t>
-  </si>
-  <si>
     <t>2.2k</t>
   </si>
   <si>
@@ -171,9 +156,6 @@
     <t>220k</t>
   </si>
   <si>
-    <t>Printer</t>
-  </si>
-  <si>
     <t>47k</t>
   </si>
   <si>
@@ -207,21 +189,12 @@
     <t>22uF</t>
   </si>
   <si>
-    <t>Audio out</t>
-  </si>
-  <si>
-    <t>Hand controller 1</t>
-  </si>
-  <si>
     <t>ESP32-S3-WROOM-1-N4R2</t>
   </si>
   <si>
     <t>2N7002</t>
   </si>
   <si>
-    <t>Cassette out</t>
-  </si>
-  <si>
     <t>C21,C47,C35,C20,C56,C48,C33,C23,C53,C11,C13,C50,C12,C44,C34</t>
   </si>
   <si>
@@ -243,9 +216,6 @@
     <t>U13</t>
   </si>
   <si>
-    <t>JP3</t>
-  </si>
-  <si>
     <t>R20,R21,R19</t>
   </si>
   <si>
@@ -255,9 +225,6 @@
     <t>C46,C4,C52,C55,C19,C45,C25,C26,C41,C30,C15,C40,C29,C42,C49,C57,C24,C37,C39,C14,C43,C51,C27,C6,C36,C10,C2,C31,C16,C38,C28,C9,C32,C54,C22,C8,C17,C18</t>
   </si>
   <si>
-    <t>J11</t>
-  </si>
-  <si>
     <t>U3</t>
   </si>
   <si>
@@ -267,9 +234,6 @@
     <t>R15,R16,R17</t>
   </si>
   <si>
-    <t>JP1,JP2</t>
-  </si>
-  <si>
     <t>C3,C1</t>
   </si>
   <si>
@@ -282,9 +246,6 @@
     <t>R4,R6</t>
   </si>
   <si>
-    <t>J6</t>
-  </si>
-  <si>
     <t>R33,R69,R38</t>
   </si>
   <si>
@@ -300,9 +261,6 @@
     <t>R3,R5</t>
   </si>
   <si>
-    <t>JP4</t>
-  </si>
-  <si>
     <t>R34</t>
   </si>
   <si>
@@ -315,9 +273,6 @@
     <t>R31</t>
   </si>
   <si>
-    <t>J8</t>
-  </si>
-  <si>
     <t>R32,R35</t>
   </si>
   <si>
@@ -354,21 +309,12 @@
     <t>C58</t>
   </si>
   <si>
-    <t>J3</t>
-  </si>
-  <si>
-    <t>J12</t>
-  </si>
-  <si>
     <t>U10</t>
   </si>
   <si>
     <t>Q3</t>
   </si>
   <si>
-    <t>J5</t>
-  </si>
-  <si>
     <t>C_0805_2012Metric</t>
   </si>
   <si>
@@ -381,9 +327,6 @@
     <t>SW_E-Switch_EG2219_DPDT_Angled</t>
   </si>
   <si>
-    <t>PinHeader_1x03_P2.54mm_Vertical</t>
-  </si>
-  <si>
     <t>AMPHENOL_10118194-0001LF</t>
   </si>
   <si>
@@ -534,9 +477,6 @@
     <t>C5116481</t>
   </si>
   <si>
-    <t>C5116482</t>
-  </si>
-  <si>
     <t>C693842</t>
   </si>
   <si>
@@ -580,6 +520,24 @@
   </si>
   <si>
     <t>C2939180</t>
+  </si>
+  <si>
+    <t>J11,J12</t>
+  </si>
+  <si>
+    <t>Hand Controllers</t>
+  </si>
+  <si>
+    <t>Pin Headers 1x2</t>
+  </si>
+  <si>
+    <t>JP1,JP2,JP3</t>
+  </si>
+  <si>
+    <t>Audio Jacks</t>
+  </si>
+  <si>
+    <t>J3,J5,J6,J8</t>
   </si>
 </sst>
 </file>
@@ -667,7 +625,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -678,9 +636,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1044,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -1056,7 +1011,7 @@
     <col min="2" max="2" width="12.375" customWidth="1"/>
     <col min="3" max="3" width="36.125" customWidth="1"/>
     <col min="4" max="4" width="24.5" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="7"/>
+    <col min="5" max="5" width="8.875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -1069,725 +1024,643 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="85.5">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="15">
+      <c r="A2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="15">
+      <c r="A3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="15">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="15">
+      <c r="A5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="199.5">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="15">
+      <c r="A7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="15">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" ht="15">
+      <c r="A9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15">
+      <c r="A10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15">
+      <c r="A11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="85.5">
+      <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="42.75">
+      <c r="A13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15">
+      <c r="A14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="128.25">
+      <c r="A15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15">
+      <c r="A16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15">
+      <c r="A17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15">
+      <c r="A18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="8" t="s">
+    </row>
+    <row r="19" spans="1:4" ht="15">
+      <c r="A19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15">
+      <c r="A20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15">
+      <c r="A21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15">
+      <c r="A22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="28.5">
+      <c r="A23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15">
+      <c r="A24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="42.75">
+      <c r="A25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15">
+      <c r="A26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15">
+      <c r="A27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15">
+      <c r="A28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15">
+      <c r="A29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15">
+      <c r="A30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="28.5">
+      <c r="A31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15">
+      <c r="A32" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15">
+      <c r="A33" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="57">
+      <c r="A34" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="28.5">
+      <c r="A35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15">
+      <c r="A36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15">
+      <c r="A37" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15">
+      <c r="A38" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15">
+      <c r="A39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="128.25">
-      <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="6" t="s">
+    </row>
+    <row r="40" spans="1:4" ht="15">
+      <c r="A40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15">
+      <c r="A41" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15">
+      <c r="A42" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15">
+      <c r="A43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="15">
-      <c r="A4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="42.75">
-      <c r="A5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="42.75">
-      <c r="A6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="15">
-      <c r="A7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="15">
-      <c r="A8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5" ht="15">
-      <c r="A9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15">
-      <c r="A10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15">
-      <c r="A11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="199.5">
-      <c r="A12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="57">
-      <c r="A13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15">
-      <c r="A14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15">
-      <c r="A15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15">
-      <c r="A16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15">
-      <c r="A17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15">
-      <c r="A18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="28.5">
-      <c r="A19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15">
-      <c r="A20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15">
-      <c r="A21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="D43" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15">
+      <c r="A44" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15">
-      <c r="A22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15">
-      <c r="A23" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15">
-      <c r="A24" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15">
-      <c r="A25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15">
-      <c r="A26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D26" s="8" t="s">
+      <c r="C44" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15">
+      <c r="A45" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15">
-      <c r="A27" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15">
-      <c r="A28" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15">
-      <c r="A29" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15">
-      <c r="A30" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15">
-      <c r="A31" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15">
-      <c r="A32" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15">
-      <c r="A33" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15">
-      <c r="A34" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15">
-      <c r="A35" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15">
-      <c r="A36" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15">
-      <c r="A37" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15">
-      <c r="A38" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15">
-      <c r="A39" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15">
-      <c r="A40" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15">
-      <c r="A41" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="28.5">
-      <c r="A42" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15">
-      <c r="A43" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15">
-      <c r="A44" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="28.5">
-      <c r="A45" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15">
-      <c r="A46" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15">
-      <c r="A47" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="57">
-      <c r="A48" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15">
-      <c r="A49" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15">
-      <c r="A50" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15">
-      <c r="A51" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D45">
+    <sortCondition ref="D2:D45"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="D41" r:id="rId1" display="https://www.lcsc.com/product-detail/USB-Connectors_MOLEX-676430910_C2798029.html" xr:uid="{5F9E5D26-883F-46FC-97A8-36560CBCF087}"/>
-    <hyperlink ref="D48" r:id="rId2" display="https://www.lcsc.com/product-detail/D-Sub-DVI-HDMI-Connectors_TE-Connectivity-5747840-6_C305940.html" xr:uid="{7AE16AA9-D130-4D48-8821-A581FB52A4B6}"/>
-    <hyperlink ref="D13" r:id="rId3" display="https://www.lcsc.com/product-detail/D-Sub-DVI-HDMI-Connectors_TE-Connectivity-5747840-6_C305940.html" xr:uid="{8D298D0B-8691-4B0D-BEB7-7C442744ADDD}"/>
-    <hyperlink ref="D49" r:id="rId4" display="https://www.lcsc.com/product-detail/WiFi-Modules_Espressif-Systems-ESP32-S3-WROOM-1-N4R2_C2913203.html" xr:uid="{5EAAE220-0C1D-4F3C-BFB6-B405C9B020EC}"/>
+    <hyperlink ref="D30" r:id="rId1" display="https://www.lcsc.com/product-detail/USB-Connectors_MOLEX-676430910_C2798029.html" xr:uid="{5F9E5D26-883F-46FC-97A8-36560CBCF087}"/>
+    <hyperlink ref="D34" r:id="rId2" display="https://www.lcsc.com/product-detail/D-Sub-DVI-HDMI-Connectors_TE-Connectivity-5747840-6_C305940.html" xr:uid="{8D298D0B-8691-4B0D-BEB7-7C442744ADDD}"/>
+    <hyperlink ref="D32" r:id="rId3" display="https://www.lcsc.com/product-detail/WiFi-Modules_Espressif-Systems-ESP32-S3-WROOM-1-N4R2_C2913203.html" xr:uid="{5EAAE220-0C1D-4F3C-BFB6-B405C9B020EC}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>